--- a/temp_doc/KEGIATAN BKK.xlsx
+++ b/temp_doc/KEGIATAN BKK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ADEC00B-1E76-B24E-898B-A6FF2AF27029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FB986-2BBD-3F47-8628-1E75EF9FB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{70C81523-F9CB-7044-91B0-681474C867D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id_kegiatan_gambar</t>
   </si>
@@ -47,16 +47,67 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=17kFIKiMyqX4wWDkga2jGa0SnxGLW3zbQ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1AHXtfgHI6_L00SEMtbPnC3c8Wk8WIZoj</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1_GKX8w_qSKK5J_nnau9ldMSAqQFq4vSe</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1liyO3EnahdViGinsZaeAsJKK08lO2e17</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=12Rm5Rh13-ew38eCINBBjwcSJK1oMn0-d</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=19fhgCE5yNsjH0KezOHLWNKfO4rCDuIaH</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=19ha7XZsNOnh_hNe6uMuz7hIzV7DEEIqJ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1B0Ygz4I01gQgISAI3H2C9aMlqU4_LOjQ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1BNUhEOk5AfuVfdvoKh5UYMerIPE-I5Mi</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1Cg7gSP16CS29giVz-DXGRwHPSRIBZPsI</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1EGYzshyp959RV5HDAUvj_EeEkoPah2od</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1G7iVRwgvHaGiNYTy9ttlJQXN4w5sanz0</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1HeTRRAkK-4c92s9vacoZI_73Tiq5y3PI</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1LaVUbSKWx4squ8XvsLjQpSRUoaRn-PLa</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1MXLtZ4-afWc0gsKVRFkytgAHQIj6nY63</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1O_f_BDlWDapNjvjJ0cKdXoaZosxc3paG</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1OlBe_-tysuaoxDAHRkN7loL6-vpu2fE6</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1OthzZ7neuhNM7uxX8qmMToS4Jqdb0Aal</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1S1E-wX-K8YeYQ5SbqeplJ_zoe-wu-lWD</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1XDgJ42LotUppqH_2TzmARxJOEHDAIvwX</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1e-jD4rlw6DzGrxwRrNq7lP3xY3WEgqr2</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1gZU0zK3TNNw4Vyb7AXwjGpNG7TFctOOR</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1lMQMv6wN3cu1Xux_PbWtJl9X5vO9aFAW</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1tws2zwmtDrwZ8mu-ndELiHyBno4Gn2ZZ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1u4D4pzGe2GaxdUbxgv43ER72bDv6ffZD</t>
   </si>
 </sst>
 </file>
@@ -427,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71655C61-19C1-7843-8D21-82E7D05E07A5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,10 +504,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B2">
-        <v>5366</v>
+        <v>2062</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -464,10 +515,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B3">
-        <v>5366</v>
+        <v>2062</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -475,10 +526,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B4">
-        <v>5366</v>
+        <v>2062</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -486,21 +537,225 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B5">
-        <v>5366</v>
+        <v>2062</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1009</v>
+      </c>
+      <c r="B6">
+        <v>2062</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1010</v>
+      </c>
+      <c r="B7">
+        <v>2062</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1011</v>
+      </c>
+      <c r="B8">
+        <v>2062</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1012</v>
+      </c>
+      <c r="B9">
+        <v>2062</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1013</v>
+      </c>
+      <c r="B10">
+        <v>2062</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1014</v>
+      </c>
+      <c r="B11">
+        <v>2062</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1015</v>
+      </c>
+      <c r="B12">
+        <v>2062</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1016</v>
+      </c>
+      <c r="B13">
+        <v>2062</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1017</v>
+      </c>
+      <c r="B14">
+        <v>2062</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1018</v>
+      </c>
+      <c r="B15">
+        <v>2062</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1019</v>
+      </c>
+      <c r="B16">
+        <v>2062</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1020</v>
+      </c>
+      <c r="B17">
+        <v>2062</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1021</v>
+      </c>
+      <c r="B18">
+        <v>2062</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1022</v>
+      </c>
+      <c r="B19">
+        <v>2062</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1023</v>
+      </c>
+      <c r="B20">
+        <v>2062</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1024</v>
+      </c>
+      <c r="B21">
+        <v>2062</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1025</v>
+      </c>
+      <c r="B22">
+        <v>2062</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6F736236-B393-3F42-8303-47CEDE29C644}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{066E4CA4-02B2-0F46-8390-967225F9B3E2}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{DEEA4FFE-CD4F-2746-AA57-077B7B7309EF}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{7F9C27D0-0111-A041-A2B5-B5B1F2485898}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3FF97AF-271D-8D45-BD05-B78F13B8A320}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A6B9C32D-CBD9-A944-8905-B96C99C0AFDA}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{B7C7D51D-3A11-5745-8FC1-2A2DE230D4C4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E75E3F15-7799-AE49-B82D-02DEBE1117AB}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{FB5EBECD-7EB2-8E42-90AD-5224163562CB}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{7A004051-176C-474B-A0A6-B4A69445D14B}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{0EE65283-2691-F24C-8068-C9D2605F5B47}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{CEBED091-682B-0B47-B9ED-ED4C32CB98DD}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{EA6A6C07-E3D5-9B4B-88DA-B5B6D9B34102}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{8CC6D408-4CC0-FB4F-AFE4-E620A3353D13}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{D2F65396-C03D-A24D-A3D5-7643A6A24BE6}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{AF7CE31A-84B1-2144-BF57-9F05DAE23FA3}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{645601BF-369B-704D-8213-79DAF4F548D9}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{5E92CC62-DBBF-3E4E-B1B0-A737CB711B79}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{319460C0-8731-C043-880B-76B9DA5D0D8A}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{5FA036CA-2D5A-D147-B75E-622D4EF48805}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{7A3131D9-1FC5-A64C-A531-D27B52732FD6}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{87714DB3-6249-5745-ABFB-A1BF63565A52}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{5583499F-D8B3-A840-8C55-ADFA93CDEB36}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{A5D88C0F-521F-B840-B7D5-B12F2A680EA4}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{1A483B2B-0AB8-0D40-810D-92011428601F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/KEGIATAN BKK.xlsx
+++ b/temp_doc/KEGIATAN BKK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88FB986-2BBD-3F47-8628-1E75EF9FB411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385EA9C-ADD4-3C45-B67F-BDC575C6913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{70C81523-F9CB-7044-91B0-681474C867D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id_kegiatan_gambar</t>
   </si>
@@ -47,67 +47,22 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=12Rm5Rh13-ew38eCINBBjwcSJK1oMn0-d</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=19fhgCE5yNsjH0KezOHLWNKfO4rCDuIaH</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=19ha7XZsNOnh_hNe6uMuz7hIzV7DEEIqJ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1B0Ygz4I01gQgISAI3H2C9aMlqU4_LOjQ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1BNUhEOk5AfuVfdvoKh5UYMerIPE-I5Mi</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1Cg7gSP16CS29giVz-DXGRwHPSRIBZPsI</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1EGYzshyp959RV5HDAUvj_EeEkoPah2od</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1G7iVRwgvHaGiNYTy9ttlJQXN4w5sanz0</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1HeTRRAkK-4c92s9vacoZI_73Tiq5y3PI</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1LaVUbSKWx4squ8XvsLjQpSRUoaRn-PLa</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1MXLtZ4-afWc0gsKVRFkytgAHQIj6nY63</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1O_f_BDlWDapNjvjJ0cKdXoaZosxc3paG</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1OlBe_-tysuaoxDAHRkN7loL6-vpu2fE6</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1OthzZ7neuhNM7uxX8qmMToS4Jqdb0Aal</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1S1E-wX-K8YeYQ5SbqeplJ_zoe-wu-lWD</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1XDgJ42LotUppqH_2TzmARxJOEHDAIvwX</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1e-jD4rlw6DzGrxwRrNq7lP3xY3WEgqr2</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1gZU0zK3TNNw4Vyb7AXwjGpNG7TFctOOR</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1lMQMv6wN3cu1Xux_PbWtJl9X5vO9aFAW</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1tws2zwmtDrwZ8mu-ndELiHyBno4Gn2ZZ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1u4D4pzGe2GaxdUbxgv43ER72bDv6ffZD</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=13w5X3DADux2eT6wC0_r0Qveh2CQwBQWO</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=142Hq3VVriJmJpMGwaBDJJMtc0tIPoa1N</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1RzmK3E6xZFPR2WQ3rvZL7shWMIAQKUnj</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1dUXTlBaloorrSGq_QwXZRhA9cAnQ7Iw4</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1h6_lBNVgXIzrvQRlDJbTlcxB2iaLrSab</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1vw4bTT15LoE4EHqr3eQjfMmEkoR8C7cH</t>
   </si>
 </sst>
 </file>
@@ -481,7 +436,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,10 +459,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1005</v>
+        <v>1026</v>
       </c>
       <c r="B2">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -515,10 +470,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1006</v>
+        <v>1027</v>
       </c>
       <c r="B3">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -526,10 +481,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1007</v>
+        <v>1028</v>
       </c>
       <c r="B4">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -537,10 +492,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1008</v>
+        <v>1029</v>
       </c>
       <c r="B5">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -548,10 +503,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1009</v>
+        <v>1030</v>
       </c>
       <c r="B6">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -559,203 +514,68 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1010</v>
+        <v>1031</v>
       </c>
       <c r="B7">
-        <v>2062</v>
+        <v>2759</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1011</v>
-      </c>
-      <c r="B8">
-        <v>2062</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1012</v>
-      </c>
-      <c r="B9">
-        <v>2062</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1013</v>
-      </c>
-      <c r="B10">
-        <v>2062</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1014</v>
-      </c>
-      <c r="B11">
-        <v>2062</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1015</v>
-      </c>
-      <c r="B12">
-        <v>2062</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1016</v>
-      </c>
-      <c r="B13">
-        <v>2062</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1017</v>
-      </c>
-      <c r="B14">
-        <v>2062</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1018</v>
-      </c>
-      <c r="B15">
-        <v>2062</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1019</v>
-      </c>
-      <c r="B16">
-        <v>2062</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1020</v>
-      </c>
-      <c r="B17">
-        <v>2062</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1021</v>
-      </c>
-      <c r="B18">
-        <v>2062</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1022</v>
-      </c>
-      <c r="B19">
-        <v>2062</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1023</v>
-      </c>
-      <c r="B20">
-        <v>2062</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1024</v>
-      </c>
-      <c r="B21">
-        <v>2062</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1025</v>
-      </c>
-      <c r="B22">
-        <v>2062</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D3FF97AF-271D-8D45-BD05-B78F13B8A320}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A6B9C32D-CBD9-A944-8905-B96C99C0AFDA}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{B7C7D51D-3A11-5745-8FC1-2A2DE230D4C4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{E75E3F15-7799-AE49-B82D-02DEBE1117AB}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{FB5EBECD-7EB2-8E42-90AD-5224163562CB}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{7A004051-176C-474B-A0A6-B4A69445D14B}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{0EE65283-2691-F24C-8068-C9D2605F5B47}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{CEBED091-682B-0B47-B9ED-ED4C32CB98DD}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{EA6A6C07-E3D5-9B4B-88DA-B5B6D9B34102}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{8CC6D408-4CC0-FB4F-AFE4-E620A3353D13}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{D2F65396-C03D-A24D-A3D5-7643A6A24BE6}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{AF7CE31A-84B1-2144-BF57-9F05DAE23FA3}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{645601BF-369B-704D-8213-79DAF4F548D9}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{5E92CC62-DBBF-3E4E-B1B0-A737CB711B79}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{319460C0-8731-C043-880B-76B9DA5D0D8A}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{5FA036CA-2D5A-D147-B75E-622D4EF48805}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{7A3131D9-1FC5-A64C-A531-D27B52732FD6}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{87714DB3-6249-5745-ABFB-A1BF63565A52}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{5583499F-D8B3-A840-8C55-ADFA93CDEB36}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{A5D88C0F-521F-B840-B7D5-B12F2A680EA4}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{1A483B2B-0AB8-0D40-810D-92011428601F}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6FA5AF7C-6382-1B4F-BB82-A7BF57F4EA50}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{31045BF2-8357-F346-829D-EEA47646D727}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{BFE5CA1A-19FA-8A47-9475-17C747A85615}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{F7352247-341B-0449-A7FB-EEFCB7CD209B}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{DDA7E8F9-4F8D-2C44-9AA5-200C92F82306}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{92C9D4E4-34CF-6C48-9C3E-73742F41182B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/KEGIATAN BKK.xlsx
+++ b/temp_doc/KEGIATAN BKK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9385EA9C-ADD4-3C45-B67F-BDC575C6913C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E22B2-BCD7-1842-8FC9-702F7B160EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{70C81523-F9CB-7044-91B0-681474C867D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>id_kegiatan_gambar</t>
   </si>
@@ -47,22 +47,49 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=13w5X3DADux2eT6wC0_r0Qveh2CQwBQWO</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=142Hq3VVriJmJpMGwaBDJJMtc0tIPoa1N</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1RzmK3E6xZFPR2WQ3rvZL7shWMIAQKUnj</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1dUXTlBaloorrSGq_QwXZRhA9cAnQ7Iw4</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1h6_lBNVgXIzrvQRlDJbTlcxB2iaLrSab</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1vw4bTT15LoE4EHqr3eQjfMmEkoR8C7cH</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=1OgocY18GorPFmFv0eLDahUkUYMlUfpT1</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1zUNOQxmQaiRCGZ6lcffwJXXFKqZk57gX</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1FwvvT4rbtmAPczGsuTpWqIOxmut2x2Z8</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=18F6ZrsdrhkrmS5qdedS1-was6JY_rIK7</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1Gt33V9c8PukZh35uzJVIlZc9HzvE-qfZ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1XwOryjrVcBVcyV0VtJHgskZ1MdPwubGB</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=10J_GJrYmYl7IJ2G0aGCYdngSy94riw14</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1oZ6OI4S6aTHrhQXqZBh6lm7DIGoSSIjL</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1xij8W_3LBBMjfgmiJajkHniGuP2w_IzG</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1xWv8nrnCBfHXBORNuWR2qqoO5PwlP9bC</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1aqV8XnfHWUEYkgxqRuTPyYYk9vhkNT16</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1skHeJMFGoAITITsgDGFErVMZxRzPVBEw</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=16zE4Ov7SwpOESg6whjsrtZ6wk0o_O8tx</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1PPBkCUQxRAHgDtn8WGjXKPxVgz3sjZPF</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1SyUli3s_yhkKsL7XyCoe0tJhG1xIesGG</t>
   </si>
 </sst>
 </file>
@@ -436,7 +463,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,10 +486,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="B2">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -470,10 +497,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="B3">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -481,10 +508,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="B4">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -492,10 +519,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="B5">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -503,10 +530,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1030</v>
+        <v>1040</v>
       </c>
       <c r="B6">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -514,41 +541,113 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="B7">
-        <v>2759</v>
+        <v>3617</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
+      <c r="A8">
+        <v>1042</v>
+      </c>
+      <c r="B8">
+        <v>3617</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
+      <c r="A9">
+        <v>1043</v>
+      </c>
+      <c r="B9">
+        <v>3617</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+      <c r="A10">
+        <v>1044</v>
+      </c>
+      <c r="B10">
+        <v>3617</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
+      <c r="A11">
+        <v>1045</v>
+      </c>
+      <c r="B11">
+        <v>3617</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
+      <c r="A12">
+        <v>1046</v>
+      </c>
+      <c r="B12">
+        <v>3617</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="A13">
+        <v>1047</v>
+      </c>
+      <c r="B13">
+        <v>3617</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
+      <c r="A14">
+        <v>1048</v>
+      </c>
+      <c r="B14">
+        <v>3617</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
+      <c r="A15">
+        <v>1049</v>
+      </c>
+      <c r="B15">
+        <v>3617</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
+      <c r="A16">
+        <v>1050</v>
+      </c>
+      <c r="B16">
+        <v>3617</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
@@ -570,12 +669,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6FA5AF7C-6382-1B4F-BB82-A7BF57F4EA50}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{31045BF2-8357-F346-829D-EEA47646D727}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{BFE5CA1A-19FA-8A47-9475-17C747A85615}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{F7352247-341B-0449-A7FB-EEFCB7CD209B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{DDA7E8F9-4F8D-2C44-9AA5-200C92F82306}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{92C9D4E4-34CF-6C48-9C3E-73742F41182B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{08F52978-9B10-6147-8550-5976ECA10206}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0CFA5AF9-8927-334F-8527-EAC09EB71215}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{753A68E2-4B95-8C42-85CF-98D659BC1D23}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{26227327-7115-9A42-A792-30AAAE58DD13}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{31234FE3-5C82-CC4E-ABED-9932C117FAC1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{31C9C211-7068-F64A-A92B-A3942F6AD2CE}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{D31D61BD-D1ED-9048-BFE0-57E47598A385}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00A4A718-E89E-EF48-90FC-C8013620FDD0}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{792F96C6-8A30-4E47-81C8-4A87777C7B8D}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{6E2E11BE-6C28-2D43-988C-4F0F92F5E43D}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{47DE9811-1948-AD40-97E9-3A475E49B634}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{D8840ED9-AC87-D44E-B71F-4C8BE94A82B6}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{A849641E-D6FE-8841-B439-055A42630DA9}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{4070199E-71AF-D24D-952C-E3C0DB7263A8}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{5E6309C6-91C9-8447-86FD-207BE69834D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/KEGIATAN BKK.xlsx
+++ b/temp_doc/KEGIATAN BKK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50E22B2-BCD7-1842-8FC9-702F7B160EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217DA70-F5C7-434F-B3A7-006740C3908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{70C81523-F9CB-7044-91B0-681474C867D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id_kegiatan_gambar</t>
   </si>
@@ -47,49 +47,34 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1OgocY18GorPFmFv0eLDahUkUYMlUfpT1</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1zUNOQxmQaiRCGZ6lcffwJXXFKqZk57gX</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1FwvvT4rbtmAPczGsuTpWqIOxmut2x2Z8</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=18F6ZrsdrhkrmS5qdedS1-was6JY_rIK7</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1Gt33V9c8PukZh35uzJVIlZc9HzvE-qfZ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1XwOryjrVcBVcyV0VtJHgskZ1MdPwubGB</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=10J_GJrYmYl7IJ2G0aGCYdngSy94riw14</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1oZ6OI4S6aTHrhQXqZBh6lm7DIGoSSIjL</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1xij8W_3LBBMjfgmiJajkHniGuP2w_IzG</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1xWv8nrnCBfHXBORNuWR2qqoO5PwlP9bC</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1aqV8XnfHWUEYkgxqRuTPyYYk9vhkNT16</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1skHeJMFGoAITITsgDGFErVMZxRzPVBEw</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=16zE4Ov7SwpOESg6whjsrtZ6wk0o_O8tx</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1PPBkCUQxRAHgDtn8WGjXKPxVgz3sjZPF</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1SyUli3s_yhkKsL7XyCoe0tJhG1xIesGG</t>
+    <t>http://drive.google.com/uc?export=view&amp;id=1OKaNgEHq0m-pF6QKmmive5tjHA864rNJ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1uQz5jyGexzx0tHfKaxUUFUZ84D8TxfP5</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1mlnL9vexQ4Vnpa8UdKlLqzXJjZb3wtEf</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=12ddPvzIMo8aM19eUGBprFm38JFNt1PzJ</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=13w5X3DADux2eT6wC0_r0Qveh2CQwBQWO</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=142Hq3VVriJmJpMGwaBDJJMtc0tIPoa1N</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1RzmK3E6xZFPR2WQ3rvZL7shWMIAQKUnj</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1dUXTlBaloorrSGq_QwXZRhA9cAnQ7Iw4</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1h6_lBNVgXIzrvQRlDJbTlcxB2iaLrSab</t>
+  </si>
+  <si>
+    <t>http://drive.google.com/uc?export=view&amp;id=1vw4bTT15LoE4EHqr3eQjfMmEkoR8C7cH</t>
   </si>
 </sst>
 </file>
@@ -463,7 +448,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,10 +471,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="B2">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -497,10 +482,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="B3">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -508,10 +493,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="B4">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -519,10 +504,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="B5">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -530,10 +515,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="B6">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -541,10 +526,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="B7">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -552,10 +537,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="B8">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -563,10 +548,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="B9">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -574,10 +559,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="B10">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -585,69 +570,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="B11">
-        <v>3617</v>
+        <v>2759</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1046</v>
-      </c>
-      <c r="B12">
-        <v>3617</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1047</v>
-      </c>
-      <c r="B13">
-        <v>3617</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1048</v>
-      </c>
-      <c r="B14">
-        <v>3617</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1049</v>
-      </c>
-      <c r="B15">
-        <v>3617</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>1050</v>
-      </c>
-      <c r="B16">
-        <v>3617</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2"/>
@@ -669,21 +614,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{08F52978-9B10-6147-8550-5976ECA10206}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{0CFA5AF9-8927-334F-8527-EAC09EB71215}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{753A68E2-4B95-8C42-85CF-98D659BC1D23}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{26227327-7115-9A42-A792-30AAAE58DD13}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{31234FE3-5C82-CC4E-ABED-9932C117FAC1}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{31C9C211-7068-F64A-A92B-A3942F6AD2CE}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{D31D61BD-D1ED-9048-BFE0-57E47598A385}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{00A4A718-E89E-EF48-90FC-C8013620FDD0}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{792F96C6-8A30-4E47-81C8-4A87777C7B8D}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{6E2E11BE-6C28-2D43-988C-4F0F92F5E43D}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{47DE9811-1948-AD40-97E9-3A475E49B634}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{D8840ED9-AC87-D44E-B71F-4C8BE94A82B6}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{A849641E-D6FE-8841-B439-055A42630DA9}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{4070199E-71AF-D24D-952C-E3C0DB7263A8}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{5E6309C6-91C9-8447-86FD-207BE69834D2}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D0FEDB2-9F1B-304B-BAEE-455B0F728389}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{A2376055-0491-B148-824C-39256A8F1B5C}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{169B1EBC-AA29-B24A-BBEA-53BCB567FE17}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0E04F79-5281-1341-8BFD-0807A059639E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{376B548D-E29C-E54B-9367-5EDC849F067A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{3E950DC0-358B-2F49-BBF5-E049687C4E64}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{656DAA51-4193-7140-9087-CCE4109E386E}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{47BB37A5-7DE0-7B4D-8E96-D60E206150FD}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{38416CE8-440F-CD4E-A096-6DE5FFF5E462}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{37BA89A2-FAE9-9D4E-8D70-807B537EBE0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp_doc/KEGIATAN BKK.xlsx
+++ b/temp_doc/KEGIATAN BKK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bkk/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E217DA70-F5C7-434F-B3A7-006740C3908A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F283D-3BE0-0944-8765-E3D74CB2B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16480" xr2:uid="{70C81523-F9CB-7044-91B0-681474C867D0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id_kegiatan_gambar</t>
   </si>
@@ -47,34 +47,58 @@
     <t>gambar</t>
   </si>
   <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1OKaNgEHq0m-pF6QKmmive5tjHA864rNJ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1uQz5jyGexzx0tHfKaxUUFUZ84D8TxfP5</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1mlnL9vexQ4Vnpa8UdKlLqzXJjZb3wtEf</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=12ddPvzIMo8aM19eUGBprFm38JFNt1PzJ</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=13w5X3DADux2eT6wC0_r0Qveh2CQwBQWO</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=142Hq3VVriJmJpMGwaBDJJMtc0tIPoa1N</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1RzmK3E6xZFPR2WQ3rvZL7shWMIAQKUnj</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1dUXTlBaloorrSGq_QwXZRhA9cAnQ7Iw4</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1h6_lBNVgXIzrvQRlDJbTlcxB2iaLrSab</t>
-  </si>
-  <si>
-    <t>http://drive.google.com/uc?export=view&amp;id=1vw4bTT15LoE4EHqr3eQjfMmEkoR8C7cH</t>
+    <t>https://drive.google.com/thumbnail?id=11OzI1yJtc0e64x2s3ahmTWwlg5TvSd50</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1epnWOlyt-u6cMBGCq92egSXsfo_36mPW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1fP3pySYP995KEr666M3HZ7FxaKTp6o-x</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1U8Xi7GC5ZKcL0Q3DGJ4Du6u4tB6te56X</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1UD0Yt0Z8vLaNqZRuj8flz8o3aJJ_fa4j</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1SaLJDZjuJ3qyJnW6L9Etcq-6RmN-T4Pn</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=11iOB9wu5DWWF5Vj8odQEj0KGycEG6N2V</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1prjXozf2LqZ4dEj1wCaIRyq5ZtsPriLy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1XYINj7SbbnQN2yjNhethQ__dOmecVrKZ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1iEYw4i5IGTcohuxShwKs6Xphj087PovW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1luakLq-Pqa-YHp4aPYLE0dj_3NyI6Asm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1WVSdwPUb7jTt-A-mL1myekGcHLsfKwcL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1AjqPEZ-LYo-HH4A3cP3jyn-aeI6LFISP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1xFdjcJdK28cdHPdmabmXxWfPZtFY_w4p</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=13tNDi12IRtxSvGbtPvC5eYuTEmOos-sf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1K1RjzV8N35t-zmTgKCMzRG9T2DOg_Cqh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1An2ZiRx41VlnZG8WKTtGRD11W9-tYKFI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/thumbnail?id=1GXO9PJCoUq3seWVcAZhDwJcHO2IEQo0K</t>
   </si>
 </sst>
 </file>
@@ -149,9 +173,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,7 +213,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -295,7 +319,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -437,7 +461,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +472,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,10 +495,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1051</v>
+        <v>1001</v>
       </c>
       <c r="B2">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -482,10 +506,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1052</v>
+        <v>1002</v>
       </c>
       <c r="B3">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -493,10 +517,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1053</v>
+        <v>1003</v>
       </c>
       <c r="B4">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
@@ -504,10 +528,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="B5">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -515,10 +539,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1055</v>
+        <v>1005</v>
       </c>
       <c r="B6">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
@@ -526,10 +550,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1056</v>
+        <v>1006</v>
       </c>
       <c r="B7">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -537,10 +561,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1057</v>
+        <v>1007</v>
       </c>
       <c r="B8">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -548,10 +572,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="B9">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -559,10 +583,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1059</v>
+        <v>1009</v>
       </c>
       <c r="B10">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -570,60 +594,132 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="B11">
-        <v>2759</v>
+        <v>5417</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12">
+        <v>5417</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13">
+        <v>5417</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14">
+        <v>5417</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15">
+        <v>5417</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16">
+        <v>5417</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17">
+        <v>5417</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18">
+        <v>5417</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19">
+        <v>5417</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6D0FEDB2-9F1B-304B-BAEE-455B0F728389}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A2376055-0491-B148-824C-39256A8F1B5C}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{169B1EBC-AA29-B24A-BBEA-53BCB567FE17}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{E0E04F79-5281-1341-8BFD-0807A059639E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{376B548D-E29C-E54B-9367-5EDC849F067A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{3E950DC0-358B-2F49-BBF5-E049687C4E64}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{656DAA51-4193-7140-9087-CCE4109E386E}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{47BB37A5-7DE0-7B4D-8E96-D60E206150FD}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{38416CE8-440F-CD4E-A096-6DE5FFF5E462}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{37BA89A2-FAE9-9D4E-8D70-807B537EBE0A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B44F9E4A-0CBE-304A-801E-A81CFF232085}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DFEE8071-9B65-D442-B01E-C7D2B5293FD6}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{64AFFE5C-A5BD-EF45-9114-6840D358B9DF}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{DC81C42C-CFBC-CD4E-8232-9D0B75CA70AC}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2626E997-7A0C-2A48-A3FB-C9142086B2F9}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{BDCA2663-84EA-D243-B4A6-E5CDCB608048}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{075B272E-4DAA-DF4B-BF82-C7A826CB08A9}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3CB874A4-B6C7-D847-B09B-498B06B2BF22}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{EF735FF4-9037-6E46-B868-B96698DEDF28}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{E8C72CE1-76B1-B142-A8C7-D7D7C3E0A891}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{335CD1CE-0E8A-6449-B8B7-B55D25AB3267}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{F008FF04-6B97-E444-BC53-E6A2B344C118}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{CE13C41D-A194-8643-ADFE-F8CA2700E60B}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{C5532099-589E-B24E-807C-0FBE4F6F1F39}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{BBF091EC-FF11-DD45-AAE7-70596963DF1B}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{213A2CCD-0CBB-E641-8D83-9C6A45BD1423}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{80E3EA01-96F1-9D48-A689-458AB649FFE6}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{AF1064F5-64DB-D649-8008-3D703A9C2948}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
